--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1443,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1478,28 +1490,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1536,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1905,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1940,28 +1952,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +1998,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2153,10 +2165,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2200,28 +2212,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2246,28 +2258,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2500,10 +2512,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2547,28 +2559,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2593,28 +2605,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2818,10 +2830,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2865,28 +2877,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2911,28 +2923,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3107,10 +3119,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3154,28 +3166,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3200,28 +3212,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3338,10 +3350,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3385,28 +3397,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3431,28 +3443,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3627,10 +3639,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3674,28 +3686,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3720,28 +3732,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3829,10 +3841,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3876,28 +3888,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3922,28 +3934,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4060,10 +4072,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4107,28 +4119,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4153,28 +4165,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4291,10 +4303,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4338,28 +4350,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4384,28 +4396,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4551,10 +4563,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4598,28 +4610,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4644,28 +4656,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4869,10 +4881,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4916,28 +4928,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4962,28 +4974,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5071,10 +5083,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5118,28 +5130,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5164,28 +5176,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5273,10 +5285,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5320,28 +5332,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5366,28 +5378,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5475,10 +5487,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5522,28 +5534,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5568,28 +5580,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5677,10 +5689,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5724,28 +5736,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5770,28 +5782,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5908,10 +5920,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5955,28 +5967,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6001,28 +6013,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6110,10 +6122,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6157,28 +6169,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6203,28 +6215,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6341,10 +6353,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6388,28 +6400,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6434,28 +6446,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6543,10 +6555,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6590,28 +6602,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6636,28 +6648,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6774,10 +6786,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6821,28 +6833,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6867,28 +6879,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6947,10 +6959,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
